--- a/lin_R1_by_R2 (2 by 1)100.xlsx
+++ b/lin_R1_by_R2 (2 by 1)100.xlsx
@@ -296,6 +296,122 @@
         <v>-0.10886302674852115</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>15.991720189640688</v>
+      </c>
+      <c r="B3" t="n">
+        <v>20.132382925040503</v>
+      </c>
+      <c r="C3" t="n">
+        <v>25.345168464304475</v>
+      </c>
+      <c r="D3" t="n">
+        <v>31.90767664591705</v>
+      </c>
+      <c r="E3" t="n">
+        <v>40.169384960856256</v>
+      </c>
+      <c r="F3" t="n">
+        <v>50.57025950336439</v>
+      </c>
+      <c r="G3" t="n">
+        <v>63.66418476981091</v>
+      </c>
+      <c r="H3" t="n">
+        <v>80.14846002787415</v>
+      </c>
+      <c r="I3" t="n">
+        <v>100.90093304525982</v>
+      </c>
+      <c r="J3" t="n">
+        <v>127.0267486844194</v>
+      </c>
+      <c r="K3" t="n">
+        <v>159.91720189640688</v>
+      </c>
+      <c r="L3" t="n">
+        <v>201.32382925040503</v>
+      </c>
+      <c r="M3" t="n">
+        <v>253.45168464304473</v>
+      </c>
+      <c r="N3" t="n">
+        <v>319.0767664591705</v>
+      </c>
+      <c r="O3" t="n">
+        <v>401.6938496085626</v>
+      </c>
+      <c r="P3" t="n">
+        <v>505.7025950336439</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>636.6418476981091</v>
+      </c>
+      <c r="R3" t="n">
+        <v>801.4846002787415</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1009.0093304525981</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1270.267486844194</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1599.172018964069</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2013.2382925040502</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2534.5168464304475</v>
+      </c>
+      <c r="X3" t="n">
+        <v>3190.767664591705</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>4016.9384960856255</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>5057.025950336439</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>6366.418476981091</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>8014.846002787415</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>10090.09330452598</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>12702.67486844194</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>15991.72018964069</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>20132.382925040503</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>25345.168464304475</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>31907.67664591705</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>40169.38496085625</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>50570.25950336439</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>63664.18476981091</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>80148.46002787414</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -539,6 +655,122 @@
       </c>
       <c r="AL2" t="n">
         <v>-0.10887202239466043</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>15.991720189640688</v>
+      </c>
+      <c r="B3" t="n">
+        <v>20.132382925040503</v>
+      </c>
+      <c r="C3" t="n">
+        <v>25.345168464304475</v>
+      </c>
+      <c r="D3" t="n">
+        <v>31.90767664591705</v>
+      </c>
+      <c r="E3" t="n">
+        <v>40.169384960856256</v>
+      </c>
+      <c r="F3" t="n">
+        <v>50.57025950336439</v>
+      </c>
+      <c r="G3" t="n">
+        <v>63.66418476981091</v>
+      </c>
+      <c r="H3" t="n">
+        <v>80.14846002787415</v>
+      </c>
+      <c r="I3" t="n">
+        <v>100.90093304525982</v>
+      </c>
+      <c r="J3" t="n">
+        <v>127.0267486844194</v>
+      </c>
+      <c r="K3" t="n">
+        <v>159.91720189640688</v>
+      </c>
+      <c r="L3" t="n">
+        <v>201.32382925040503</v>
+      </c>
+      <c r="M3" t="n">
+        <v>253.45168464304473</v>
+      </c>
+      <c r="N3" t="n">
+        <v>319.0767664591705</v>
+      </c>
+      <c r="O3" t="n">
+        <v>401.6938496085626</v>
+      </c>
+      <c r="P3" t="n">
+        <v>505.7025950336439</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>636.6418476981091</v>
+      </c>
+      <c r="R3" t="n">
+        <v>801.4846002787415</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1009.0093304525981</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1270.267486844194</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1599.172018964069</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2013.2382925040502</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2534.5168464304475</v>
+      </c>
+      <c r="X3" t="n">
+        <v>3190.767664591705</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>4016.9384960856255</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>5057.025950336439</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>6366.418476981091</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>8014.846002787415</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>10090.09330452598</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>12702.67486844194</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>15991.72018964069</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>20132.382925040503</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>25345.168464304475</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>31907.67664591705</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>40169.38496085625</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>50570.25950336439</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>63664.18476981091</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>80148.46002787414</v>
       </c>
     </row>
   </sheetData>
@@ -786,6 +1018,122 @@
         <v>-0.10887330868785082</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>15.991720189640688</v>
+      </c>
+      <c r="B3" t="n">
+        <v>20.132382925040503</v>
+      </c>
+      <c r="C3" t="n">
+        <v>25.345168464304475</v>
+      </c>
+      <c r="D3" t="n">
+        <v>31.90767664591705</v>
+      </c>
+      <c r="E3" t="n">
+        <v>40.169384960856256</v>
+      </c>
+      <c r="F3" t="n">
+        <v>50.57025950336439</v>
+      </c>
+      <c r="G3" t="n">
+        <v>63.66418476981091</v>
+      </c>
+      <c r="H3" t="n">
+        <v>80.14846002787415</v>
+      </c>
+      <c r="I3" t="n">
+        <v>100.90093304525982</v>
+      </c>
+      <c r="J3" t="n">
+        <v>127.0267486844194</v>
+      </c>
+      <c r="K3" t="n">
+        <v>159.91720189640688</v>
+      </c>
+      <c r="L3" t="n">
+        <v>201.32382925040503</v>
+      </c>
+      <c r="M3" t="n">
+        <v>253.45168464304473</v>
+      </c>
+      <c r="N3" t="n">
+        <v>319.0767664591705</v>
+      </c>
+      <c r="O3" t="n">
+        <v>401.6938496085626</v>
+      </c>
+      <c r="P3" t="n">
+        <v>505.7025950336439</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>636.6418476981091</v>
+      </c>
+      <c r="R3" t="n">
+        <v>801.4846002787415</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1009.0093304525981</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1270.267486844194</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1599.172018964069</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2013.2382925040502</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2534.5168464304475</v>
+      </c>
+      <c r="X3" t="n">
+        <v>3190.767664591705</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>4016.9384960856255</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>5057.025950336439</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>6366.418476981091</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>8014.846002787415</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>10090.09330452598</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>12702.67486844194</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>15991.72018964069</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>20132.382925040503</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>25345.168464304475</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>31907.67664591705</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>40169.38496085625</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>50570.25950336439</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>63664.18476981091</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>80148.46002787414</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1031,6 +1379,122 @@
         <v>-0.10886301751426762</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>15.991720189640688</v>
+      </c>
+      <c r="B3" t="n">
+        <v>20.132382925040503</v>
+      </c>
+      <c r="C3" t="n">
+        <v>25.345168464304475</v>
+      </c>
+      <c r="D3" t="n">
+        <v>31.90767664591705</v>
+      </c>
+      <c r="E3" t="n">
+        <v>40.169384960856256</v>
+      </c>
+      <c r="F3" t="n">
+        <v>50.57025950336439</v>
+      </c>
+      <c r="G3" t="n">
+        <v>63.66418476981091</v>
+      </c>
+      <c r="H3" t="n">
+        <v>80.14846002787415</v>
+      </c>
+      <c r="I3" t="n">
+        <v>100.90093304525982</v>
+      </c>
+      <c r="J3" t="n">
+        <v>127.0267486844194</v>
+      </c>
+      <c r="K3" t="n">
+        <v>159.91720189640688</v>
+      </c>
+      <c r="L3" t="n">
+        <v>201.32382925040503</v>
+      </c>
+      <c r="M3" t="n">
+        <v>253.45168464304473</v>
+      </c>
+      <c r="N3" t="n">
+        <v>319.0767664591705</v>
+      </c>
+      <c r="O3" t="n">
+        <v>401.6938496085626</v>
+      </c>
+      <c r="P3" t="n">
+        <v>505.7025950336439</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>636.6418476981091</v>
+      </c>
+      <c r="R3" t="n">
+        <v>801.4846002787415</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1009.0093304525981</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1270.267486844194</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1599.172018964069</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2013.2382925040502</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2534.5168464304475</v>
+      </c>
+      <c r="X3" t="n">
+        <v>3190.767664591705</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>4016.9384960856255</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>5057.025950336439</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>6366.418476981091</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>8014.846002787415</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>10090.09330452598</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>12702.67486844194</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>15991.72018964069</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>20132.382925040503</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>25345.168464304475</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>31907.67664591705</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>40169.38496085625</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>50570.25950336439</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>63664.18476981091</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>80148.46002787414</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/lin_R1_by_R2 (2 by 1)100.xlsx
+++ b/lin_R1_by_R2 (2 by 1)100.xlsx
@@ -66,94 +66,94 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.166591939267732</v>
+        <v>1.1634255053897908</v>
       </c>
       <c r="B1" t="n">
-        <v>1.1665482387350519</v>
+        <v>1.1615429324223643</v>
       </c>
       <c r="C1" t="n">
-        <v>1.1664789886603089</v>
+        <v>1.1585789308071843</v>
       </c>
       <c r="D1" t="n">
-        <v>1.1663692613111554</v>
+        <v>1.1539300793230407</v>
       </c>
       <c r="E1" t="n">
-        <v>1.1661954220236652</v>
+        <v>1.146682142065449</v>
       </c>
       <c r="F1" t="n">
-        <v>1.1659200730887849</v>
+        <v>1.1354866805292831</v>
       </c>
       <c r="G1" t="n">
-        <v>1.1654840953384362</v>
+        <v>1.1184395471620452</v>
       </c>
       <c r="H1" t="n">
-        <v>1.1647941723895057</v>
+        <v>1.0930387315682042</v>
       </c>
       <c r="I1" t="n">
-        <v>1.1637033607084164</v>
+        <v>1.0563830899305138</v>
       </c>
       <c r="J1" t="n">
-        <v>1.161981146346714</v>
+        <v>1.0058439569963937</v>
       </c>
       <c r="K1" t="n">
-        <v>1.1592680867636627</v>
+        <v>0.9403332212128153</v>
       </c>
       <c r="L1" t="n">
-        <v>1.1550090420062218</v>
+        <v>0.8617751959740617</v>
       </c>
       <c r="M1" t="n">
-        <v>1.1483596246297927</v>
+        <v>0.7756347317435992</v>
       </c>
       <c r="N1" t="n">
-        <v>1.1380665437779875</v>
+        <v>0.6894087804339882</v>
       </c>
       <c r="O1" t="n">
-        <v>1.1223417452138522</v>
+        <v>0.6096336398692108</v>
       </c>
       <c r="P1" t="n">
-        <v>1.0987950349352111</v>
+        <v>0.5395927089027853</v>
       </c>
       <c r="Q1" t="n">
-        <v>1.0645686273805555</v>
+        <v>0.479244956655103</v>
       </c>
       <c r="R1" t="n">
-        <v>1.0168986678441154</v>
+        <v>0.426816962520657</v>
       </c>
       <c r="S1" t="n">
-        <v>0.9542746623917572</v>
+        <v>0.3804907848613893</v>
       </c>
       <c r="T1" t="n">
-        <v>0.8779406560268493</v>
+        <v>0.3391532103920322</v>
       </c>
       <c r="U1" t="n">
-        <v>0.7927180305773659</v>
+        <v>0.3022384728366365</v>
       </c>
       <c r="V1" t="n">
-        <v>0.7059210437977852</v>
+        <v>0.26933434703602777</v>
       </c>
       <c r="W1" t="n">
-        <v>0.6245092669463794</v>
+        <v>0.24002298984409254</v>
       </c>
       <c r="X1" t="n">
-        <v>0.5524815252804954</v>
+        <v>0.21390691685206722</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.49035211770782616</v>
+        <v>0.19063494103147502</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.4365355066639972</v>
+        <v>0.16989669392136403</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.3891281603372716</v>
+        <v>0.1514157799442504</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.3468710250310437</v>
+        <v>0.13494608590757562</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.3091249734128647</v>
+        <v>0.12026846110658927</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.275469591036555</v>
+        <v>0.10718771808261843</v>
       </c>
       <c r="AE1" t="n">
         <v>0.24548861224338347</v>
@@ -182,94 +182,94 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-30.1207895772372</v>
+        <v>-4.614016065594292</v>
       </c>
       <c r="B2" t="n">
-        <v>-23.929429427378444</v>
+        <v>-3.688789400365925</v>
       </c>
       <c r="C2" t="n">
-        <v>-19.012397992140787</v>
+        <v>-2.9598182083493763</v>
       </c>
       <c r="D2" t="n">
-        <v>-15.10784475959635</v>
+        <v>-2.3881018358297608</v>
       </c>
       <c r="E2" t="n">
-        <v>-12.007836720163592</v>
+        <v>-1.9428447343248196</v>
       </c>
       <c r="F2" t="n">
-        <v>-9.547284526626713</v>
+        <v>-1.5996685658791285</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.595149593546877</v>
+        <v>-1.339058303472257</v>
       </c>
       <c r="H2" t="n">
-        <v>-6.0474632519499565</v>
+        <v>-1.1449203790418618</v>
       </c>
       <c r="I2" t="n">
-        <v>-4.8217849652998055</v>
+        <v>-1.0031910405736504</v>
       </c>
       <c r="J2" t="n">
-        <v>-3.8528020737481934</v>
+        <v>-0.9006065525597448</v>
       </c>
       <c r="K2" t="n">
-        <v>-3.0888321039352893</v>
+        <v>-0.8240562130541229</v>
       </c>
       <c r="L2" t="n">
-        <v>-2.489032691026132</v>
+        <v>-0.7611465815439203</v>
       </c>
       <c r="M2" t="n">
-        <v>-2.021154869532608</v>
+        <v>-0.7021177984558147</v>
       </c>
       <c r="N2" t="n">
-        <v>-1.6596937415524833</v>
+        <v>-0.6419110996310091</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.3842991827317372</v>
+        <v>-0.5804342103856838</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.178319973018624</v>
+        <v>-0.5204825162240263</v>
       </c>
       <c r="Q2" t="n">
-        <v>-1.0274011597849522</v>
+        <v>-0.4649375639433676</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.918200458099218</v>
+        <v>-0.41514388361588517</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.8375789191622967</v>
+        <v>-0.37093784981708217</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.7728873039668016</v>
+        <v>-0.33153335060179584</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.7136648483909247</v>
+        <v>-0.29623894505229703</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.653833882840644</v>
+        <v>-0.26460488062998944</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.5924340472660327</v>
+        <v>-0.23628416230352672</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.531926502111573</v>
+        <v>-0.2109492109997336</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.4753578050981639</v>
+        <v>-0.1882944344092653</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.4244162624220627</v>
+        <v>-0.16804379898120808</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.3791739847962809</v>
+        <v>-0.1499483530167775</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.33889379052196367</v>
+        <v>-0.13378355019966828</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.3028374787981676</v>
+        <v>-0.11934719695130498</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.2705165354502122</v>
+        <v>-0.10645746129380325</v>
       </c>
       <c r="AE2" t="n">
         <v>-0.24157440971509614</v>
@@ -298,94 +298,94 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>15.991720189640688</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>20.132382925040503</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>25.345168464304475</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>31.90767664591705</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>40.169384960856256</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>50.57025950336439</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>63.66418476981091</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>80.14846002787415</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>100.90093304525982</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>127.0267486844194</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>159.91720189640688</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>201.32382925040503</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>253.45168464304473</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>319.0767664591705</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>401.6938496085626</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>505.7025950336439</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>636.6418476981091</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>801.4846002787415</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>1009.0093304525981</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>1270.267486844194</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>1599.172018964069</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>2013.2382925040502</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>2534.5168464304475</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>3190.767664591705</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>4016.9384960856255</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>5057.025950336439</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>6366.418476981091</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>8014.846002787415</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>10090.09330452598</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>12702.67486844194</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
         <v>15991.72018964069</v>
@@ -427,94 +427,94 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.166705163218204</v>
+        <v>1.1676273604674148</v>
       </c>
       <c r="B1" t="n">
-        <v>1.166727263854285</v>
+        <v>1.1676511267778873</v>
       </c>
       <c r="C1" t="n">
-        <v>1.166761668470913</v>
+        <v>1.1671193501735975</v>
       </c>
       <c r="D1" t="n">
-        <v>1.1668146500455328</v>
+        <v>1.1652858205324277</v>
       </c>
       <c r="E1" t="n">
-        <v>1.1668948055610848</v>
+        <v>1.160890517912734</v>
       </c>
       <c r="F1" t="n">
-        <v>1.167012527594008</v>
+        <v>1.152074445996322</v>
       </c>
       <c r="G1" t="n">
-        <v>1.16717671260236</v>
+        <v>1.1363814052827483</v>
       </c>
       <c r="H1" t="n">
-        <v>1.1673844052579943</v>
+        <v>1.1108488110576444</v>
       </c>
       <c r="I1" t="n">
-        <v>1.1675948344363147</v>
+        <v>1.0722971019944265</v>
       </c>
       <c r="J1" t="n">
-        <v>1.167674084895135</v>
+        <v>1.018095485459725</v>
       </c>
       <c r="K1" t="n">
-        <v>1.1672957951511354</v>
+        <v>0.9475926154132509</v>
       </c>
       <c r="L1" t="n">
-        <v>1.1657979102345362</v>
+        <v>0.8637323934452826</v>
       </c>
       <c r="M1" t="n">
-        <v>1.1620301841478549</v>
+        <v>0.7733989813319861</v>
       </c>
       <c r="N1" t="n">
-        <v>1.15425317333606</v>
+        <v>0.68519386499179</v>
       </c>
       <c r="O1" t="n">
-        <v>1.1401234700220924</v>
+        <v>0.6056653603586196</v>
       </c>
       <c r="P1" t="n">
-        <v>1.116764024154602</v>
+        <v>0.5370406034101636</v>
       </c>
       <c r="Q1" t="n">
-        <v>1.08099700210127</v>
+        <v>0.4780404706320168</v>
       </c>
       <c r="R1" t="n">
-        <v>1.0299919991953965</v>
+        <v>0.4263085733674046</v>
       </c>
       <c r="S1" t="n">
-        <v>0.9625743868952493</v>
+        <v>0.38017270990241514</v>
       </c>
       <c r="T1" t="n">
-        <v>0.8808927155885486</v>
+        <v>0.33888062404638075</v>
       </c>
       <c r="U1" t="n">
-        <v>0.791150367522881</v>
+        <v>0.30202848427418755</v>
       </c>
       <c r="V1" t="n">
-        <v>0.7018997884565473</v>
+        <v>0.26918945187258225</v>
       </c>
       <c r="W1" t="n">
-        <v>0.6203583389318506</v>
+        <v>0.23992275251985645</v>
       </c>
       <c r="X1" t="n">
-        <v>0.5496251100211064</v>
+        <v>0.2138362912738133</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.4889295427561826</v>
+        <v>0.19058521334455605</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.4359422888485468</v>
+        <v>0.16986168858724995</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.3887940350482333</v>
+        <v>0.15139111795798016</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.34658959254524224</v>
+        <v>0.13492870171656723</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.3089012169918682</v>
+        <v>0.1202562010655763</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.2753134379268632</v>
+        <v>0.10717906808001217</v>
       </c>
       <c r="AE1" t="n">
         <v>0.24538113224888203</v>
@@ -543,94 +543,94 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-30.11942646067535</v>
+        <v>-4.606796992346974</v>
       </c>
       <c r="B2" t="n">
-        <v>-23.927718769873323</v>
+        <v>-3.6807636580055205</v>
       </c>
       <c r="C2" t="n">
-        <v>-19.010255123713687</v>
+        <v>-2.9514543665133908</v>
       </c>
       <c r="D2" t="n">
-        <v>-15.105168247682801</v>
+        <v>-2.3801984697881813</v>
       </c>
       <c r="E2" t="n">
-        <v>-12.00450888990517</v>
+        <v>-1.9364811604517096</v>
       </c>
       <c r="F2" t="n">
-        <v>-9.543176390014532</v>
+        <v>-1.5960220278621193</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.590134486133092</v>
+        <v>-1.339140250812954</v>
       </c>
       <c r="H2" t="n">
-        <v>-6.041445789065346</v>
+        <v>-1.1493214800665268</v>
       </c>
       <c r="I2" t="n">
-        <v>-4.8147532211909025</v>
+        <v>-1.0118724790501792</v>
       </c>
       <c r="J2" t="n">
-        <v>-3.8449069672785234</v>
+        <v>-0.9127280922266706</v>
       </c>
       <c r="K2" t="n">
-        <v>-3.080482024657095</v>
+        <v>-0.8379021102941455</v>
       </c>
       <c r="L2" t="n">
-        <v>-2.4809614710489423</v>
+        <v>-0.7743636208565999</v>
       </c>
       <c r="M2" t="n">
-        <v>-2.01439736691508</v>
+        <v>-0.712464685330253</v>
       </c>
       <c r="N2" t="n">
-        <v>-1.6554275879168912</v>
+        <v>-0.6482665478970997</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.3835895881235436</v>
+        <v>-0.583270181364957</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.1818576113587997</v>
+        <v>-0.5212951374612488</v>
       </c>
       <c r="Q2" t="n">
-        <v>-1.035284920357442</v>
+        <v>-0.4651464517041046</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.9297577239576778</v>
+        <v>-0.4154133304266836</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.8512601000908129</v>
+        <v>-0.3712885380763388</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.7864214593318943</v>
+        <v>-0.3318234108656764</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.724708555976405</v>
+        <v>-0.2964326417224781</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.6609805721281172</v>
+        <v>-0.2647360826529901</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.5958571179329434</v>
+        <v>-0.23637776059849405</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.5330060520082225</v>
+        <v>-0.211015847093385</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.47560587459549253</v>
+        <v>-0.18834161321897977</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.4246586230913055</v>
+        <v>-0.16807722138126052</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.3795210863203661</v>
+        <v>-0.14997202797163486</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.33920254074367423</v>
+        <v>-0.13380031797760766</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.30304794544801894</v>
+        <v>-0.11935907163197514</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.27065729246486986</v>
+        <v>-0.10646587013817516</v>
       </c>
       <c r="AE2" t="n">
         <v>-0.241674306318431</v>
@@ -659,94 +659,94 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>15.991720189640688</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>20.132382925040503</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>25.345168464304475</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>31.90767664591705</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>40.169384960856256</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>50.57025950336439</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>63.66418476981091</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>80.14846002787415</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>100.90093304525982</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>127.0267486844194</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>159.91720189640688</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>201.32382925040503</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>253.45168464304473</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>319.0767664591705</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>401.6938496085626</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>505.7025950336439</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>636.6418476981091</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>801.4846002787415</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>1009.0093304525981</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>1270.267486844194</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>1599.172018964069</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>2013.2382925040502</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>2534.5168464304475</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>3190.767664591705</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>4016.9384960856255</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>5057.025950336439</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>6366.418476981091</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>8014.846002787415</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>10090.09330452598</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>12702.67486844194</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
         <v>15991.72018964069</v>
@@ -788,94 +788,94 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.1998570292497468</v>
+        <v>1.1942236106135684</v>
       </c>
       <c r="B1" t="n">
-        <v>1.199773670967728</v>
+        <v>1.1911792333605717</v>
       </c>
       <c r="C1" t="n">
-        <v>1.1996419526001978</v>
+        <v>1.1866997763508593</v>
       </c>
       <c r="D1" t="n">
-        <v>1.1994341749086948</v>
+        <v>1.1801918012269237</v>
       </c>
       <c r="E1" t="n">
-        <v>1.1991072894609285</v>
+        <v>1.170770381169073</v>
       </c>
       <c r="F1" t="n">
-        <v>1.1985951111006397</v>
+        <v>1.1570608426380316</v>
       </c>
       <c r="G1" t="n">
-        <v>1.197797506944319</v>
+        <v>1.1370154561636419</v>
       </c>
       <c r="H1" t="n">
-        <v>1.1965664239567335</v>
+        <v>1.1079212045547073</v>
       </c>
       <c r="I1" t="n">
-        <v>1.1946894643803163</v>
+        <v>1.0667852894161036</v>
       </c>
       <c r="J1" t="n">
-        <v>1.1918718484892403</v>
+        <v>1.0112484488620905</v>
       </c>
       <c r="K1" t="n">
-        <v>1.1877130424184406</v>
+        <v>0.9409734459602239</v>
       </c>
       <c r="L1" t="n">
-        <v>1.1816595269684764</v>
+        <v>0.858884085680921</v>
       </c>
       <c r="M1" t="n">
-        <v>1.17289712357588</v>
+        <v>0.7710972981983525</v>
       </c>
       <c r="N1" t="n">
-        <v>1.1601639289914918</v>
+        <v>0.6849599822587633</v>
       </c>
       <c r="O1" t="n">
-        <v>1.1415518857294937</v>
+        <v>0.6062529809888828</v>
       </c>
       <c r="P1" t="n">
-        <v>1.1144620092181372</v>
+        <v>0.537467078949444</v>
       </c>
       <c r="Q1" t="n">
-        <v>1.0759023651515058</v>
+        <v>0.47807877716075453</v>
       </c>
       <c r="R1" t="n">
-        <v>1.0232913881806458</v>
+        <v>0.4261840216504536</v>
       </c>
       <c r="S1" t="n">
-        <v>0.9557797617129211</v>
+        <v>0.38008110064908446</v>
       </c>
       <c r="T1" t="n">
-        <v>0.8756018379125181</v>
+        <v>0.3388419988742907</v>
       </c>
       <c r="U1" t="n">
-        <v>0.7883494615141676</v>
+        <v>0.3020059345852358</v>
       </c>
       <c r="V1" t="n">
-        <v>0.7013502795498957</v>
+        <v>0.2691711976088452</v>
       </c>
       <c r="W1" t="n">
-        <v>0.620883679522395</v>
+        <v>0.23990951229550986</v>
       </c>
       <c r="X1" t="n">
-        <v>0.5501240249708719</v>
+        <v>0.21382700335665827</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.4890322616493781</v>
+        <v>0.19057861183571073</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.4358285466992425</v>
+        <v>0.169857002162088</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.38868993398903473</v>
+        <v>0.15138779267223385</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.3465437274015521</v>
+        <v>0.13492634272438125</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.308877350761833</v>
+        <v>0.1202545279554837</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.27529430600246585</v>
+        <v>0.10717788166752823</v>
       </c>
       <c r="AE1" t="n">
         <v>0.24536693749780453</v>
@@ -904,94 +904,94 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-30.12217165815517</v>
+        <v>-4.622138720649405</v>
       </c>
       <c r="B2" t="n">
-        <v>-23.931166268121753</v>
+        <v>-3.698436595642587</v>
       </c>
       <c r="C2" t="n">
-        <v>-19.01457840756894</v>
+        <v>-2.9710399055428445</v>
       </c>
       <c r="D2" t="n">
-        <v>-15.110577618732954</v>
+        <v>-2.4008794783577976</v>
       </c>
       <c r="E2" t="n">
-        <v>-12.011253387997245</v>
+        <v>-1.9571391098954458</v>
       </c>
       <c r="F2" t="n">
-        <v>-9.551539562198634</v>
+        <v>-1.6154702520750897</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.60041758724214</v>
+        <v>-1.3563482283274166</v>
       </c>
       <c r="H2" t="n">
-        <v>-6.053928696535905</v>
+        <v>-1.1634880053572063</v>
       </c>
       <c r="I2" t="n">
-        <v>-4.8296220568669606</v>
+        <v>-1.0223796106630079</v>
       </c>
       <c r="J2" t="n">
-        <v>-3.8621448974215653</v>
+        <v>-0.9191690208160722</v>
       </c>
       <c r="K2" t="n">
-        <v>-3.099745816533255</v>
+        <v>-0.8403488009806144</v>
       </c>
       <c r="L2" t="n">
-        <v>-2.501509606406853</v>
+        <v>-0.7737401828208241</v>
       </c>
       <c r="M2" t="n">
-        <v>-2.0351547682955866</v>
+        <v>-0.7104930737834078</v>
       </c>
       <c r="N2" t="n">
-        <v>-1.6752003271780067</v>
+        <v>-0.646641326411259</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.4013052393405128</v>
+        <v>-0.5827123914271019</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.19667214902531</v>
+        <v>-0.521489659156515</v>
       </c>
       <c r="Q2" t="n">
-        <v>-1.0465479528549606</v>
+        <v>-0.4654796133913468</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.93700844272872</v>
+        <v>-0.415586360640769</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.8544452757349169</v>
+        <v>-0.37133836748109944</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.7862804385553849</v>
+        <v>-0.33184867474585394</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.7228501897577951</v>
+        <v>-0.2964585762002264</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.6591923387517082</v>
+        <v>-0.26475590848379715</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.5950909524483552</v>
+        <v>-0.23639124064236777</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.5331044602909188</v>
+        <v>-0.211025376232545</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.4759491540867964</v>
+        <v>-0.18834837574564528</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.4248669308292834</v>
+        <v>-0.16808200726353847</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.3795856643084645</v>
+        <v>-0.14997541635631312</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.33922837181801796</v>
+        <v>-0.13380271684151013</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.3030742201195742</v>
+        <v>-0.11936076994046887</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.2706785907073625</v>
+        <v>-0.10646707247254425</v>
       </c>
       <c r="AE2" t="n">
         <v>-0.24168880236875429</v>
@@ -1020,94 +1020,94 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>15.991720189640688</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>20.132382925040503</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>25.345168464304475</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>31.90767664591705</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>40.169384960856256</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>50.57025950336439</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>63.66418476981091</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>80.14846002787415</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>100.90093304525982</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>127.0267486844194</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>159.91720189640688</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>201.32382925040503</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>253.45168464304473</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>319.0767664591705</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>401.6938496085626</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>505.7025950336439</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>636.6418476981091</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>801.4846002787415</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>1009.0093304525981</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>1270.267486844194</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>1599.172018964069</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>2013.2382925040502</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>2534.5168464304475</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>3190.767664591705</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>4016.9384960856255</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>5057.025950336439</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>6366.418476981091</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>8014.846002787415</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>10090.09330452598</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>12702.67486844194</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
         <v>15991.72018964069</v>
@@ -1149,94 +1149,94 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.1665805090334573</v>
+        <v>1.163136431142841</v>
       </c>
       <c r="B1" t="n">
-        <v>1.166530253713226</v>
+        <v>1.1612219475022532</v>
       </c>
       <c r="C1" t="n">
-        <v>1.1664508097422996</v>
+        <v>1.1583193056289038</v>
       </c>
       <c r="D1" t="n">
-        <v>1.1663254070441367</v>
+        <v>1.1539053822920249</v>
       </c>
       <c r="E1" t="n">
-        <v>1.1661278997544147</v>
+        <v>1.1471212479502817</v>
       </c>
       <c r="F1" t="n">
-        <v>1.1658178695893004</v>
+        <v>1.1365867239722125</v>
       </c>
       <c r="G1" t="n">
-        <v>1.1653335720896263</v>
+        <v>1.1202584438352832</v>
       </c>
       <c r="H1" t="n">
-        <v>1.1645820862696543</v>
+        <v>1.0954423957661115</v>
       </c>
       <c r="I1" t="n">
-        <v>1.163425662973604</v>
+        <v>1.0590740538548638</v>
       </c>
       <c r="J1" t="n">
-        <v>1.1616613990938074</v>
+        <v>1.0084341590257297</v>
       </c>
       <c r="K1" t="n">
-        <v>1.1589853671541572</v>
+        <v>0.9424199528256821</v>
       </c>
       <c r="L1" t="n">
-        <v>1.1549212960957365</v>
+        <v>0.8630192539796255</v>
       </c>
       <c r="M1" t="n">
-        <v>1.1486899729236182</v>
+        <v>0.7758728694572359</v>
       </c>
       <c r="N1" t="n">
-        <v>1.1390272257110743</v>
+        <v>0.6887905156541845</v>
       </c>
       <c r="O1" t="n">
-        <v>1.1240246268272756</v>
+        <v>0.608632548718867</v>
       </c>
       <c r="P1" t="n">
-        <v>1.1011035915911076</v>
+        <v>0.538746910833259</v>
       </c>
       <c r="Q1" t="n">
-        <v>1.0672322327068886</v>
+        <v>0.47881230214533593</v>
       </c>
       <c r="R1" t="n">
-        <v>1.0195407857628132</v>
+        <v>0.4267037707448539</v>
       </c>
       <c r="S1" t="n">
-        <v>0.9564897235093829</v>
+        <v>0.38048215497778737</v>
       </c>
       <c r="T1" t="n">
-        <v>0.8793697576155761</v>
+        <v>0.3391367884100427</v>
       </c>
       <c r="U1" t="n">
-        <v>0.7931524085786753</v>
+        <v>0.30221406632835596</v>
       </c>
       <c r="V1" t="n">
-        <v>0.7054411212218615</v>
+        <v>0.2693183741078973</v>
       </c>
       <c r="W1" t="n">
-        <v>0.6235371985629207</v>
+        <v>0.24001418485347142</v>
       </c>
       <c r="X1" t="n">
-        <v>0.5515728716955193</v>
+        <v>0.21390137545230184</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.48983714177080523</v>
+        <v>0.19063141677738338</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.4363772034159576</v>
+        <v>0.1698944846070721</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.38911265924984606</v>
+        <v>0.15141439081665362</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.3468582845925944</v>
+        <v>0.13494521226873787</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.3091002929708523</v>
+        <v>0.12026791149308307</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.2754516774757993</v>
+        <v>0.10718737221203546</v>
       </c>
       <c r="AE1" t="n">
         <v>0.24547881864714075</v>
@@ -1265,94 +1265,94 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-30.12078803462384</v>
+        <v>-4.613684883935702</v>
       </c>
       <c r="B2" t="n">
-        <v>-23.929426362483998</v>
+        <v>-3.6882266729720055</v>
       </c>
       <c r="C2" t="n">
-        <v>-19.012391917747276</v>
+        <v>-2.9589320455252786</v>
       </c>
       <c r="D2" t="n">
-        <v>-15.107832767310809</v>
+        <v>-2.38684146397474</v>
       </c>
       <c r="E2" t="n">
-        <v>-12.007813188764567</v>
+        <v>-1.9412703565815357</v>
       </c>
       <c r="F2" t="n">
-        <v>-9.547238792096334</v>
+        <v>-1.5979942007224912</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.595062014401724</v>
+        <v>-1.3376144614898302</v>
       </c>
       <c r="H2" t="n">
-        <v>-6.047299314722918</v>
+        <v>-1.1440473857035882</v>
       </c>
       <c r="I2" t="n">
-        <v>-4.821488439620279</v>
+        <v>-1.0031311392944686</v>
       </c>
       <c r="J2" t="n">
-        <v>-3.8522920735456343</v>
+        <v>-0.9014418987730691</v>
       </c>
       <c r="K2" t="n">
-        <v>-3.088015375107961</v>
+        <v>-0.8256860388662125</v>
       </c>
       <c r="L2" t="n">
-        <v>-2.4878451676764275</v>
+        <v>-0.7632781580084183</v>
       </c>
       <c r="M2" t="n">
-        <v>-2.0196299093596157</v>
+        <v>-0.7042820896806768</v>
       </c>
       <c r="N2" t="n">
-        <v>-1.65801533816143</v>
+        <v>-0.6435823230127534</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.3827821074339428</v>
+        <v>-0.5812932841223566</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.177312090620349</v>
+        <v>-0.5206250428402268</v>
       </c>
       <c r="Q2" t="n">
-        <v>-1.0271703882773762</v>
+        <v>-0.4647559205913942</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.9188628662995348</v>
+        <v>-0.41498259559537687</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.8390703968755243</v>
+        <v>-0.37089318803019516</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.7749529030400043</v>
+        <v>-0.3315410780715518</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.7158653199037025</v>
+        <v>-0.2962439424268958</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.6556373247095624</v>
+        <v>-0.2646036276666584</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.5934580665491827</v>
+        <v>-0.23628327912410316</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.5321830130638369</v>
+        <v>-0.21094896613587738</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.47520622293787024</v>
+        <v>-0.18829428241479249</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.42423536943391876</v>
+        <v>-0.16804371172818308</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.3791093349391655</v>
+        <v>-0.14994830519966354</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.33889748819605525</v>
+        <v>-0.1337835235990231</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.30284439604016883</v>
+        <v>-0.11934718215948867</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.27051578663869097</v>
+        <v>-0.10645745305730261</v>
       </c>
       <c r="AE2" t="n">
         <v>-0.24157330444780287</v>
@@ -1381,94 +1381,94 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>15.991720189640688</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>20.132382925040503</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>25.345168464304475</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>31.90767664591705</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>40.169384960856256</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>50.57025950336439</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>63.66418476981091</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>80.14846002787415</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>100.90093304525982</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>127.0267486844194</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>159.91720189640688</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>201.32382925040503</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>253.45168464304473</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>319.0767664591705</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>401.6938496085626</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>505.7025950336439</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>636.6418476981091</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>801.4846002787415</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>1009.0093304525981</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>1270.267486844194</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>1599.172018964069</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>2013.2382925040502</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>2534.5168464304475</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>3190.767664591705</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>4016.9384960856255</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>5057.025950336439</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>6366.418476981091</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>8014.846002787415</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>10090.09330452598</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>12702.67486844194</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
         <v>15991.72018964069</v>

--- a/lin_R1_by_R2 (2 by 1)100.xlsx
+++ b/lin_R1_by_R2 (2 by 1)100.xlsx
@@ -298,94 +298,94 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>105.54541006761224</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>132.87379883235297</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>167.2782019116753</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>210.59077922584368</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>265.1180834569498</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>333.76389239012093</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>420.1838456692571</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>528.9801209384262</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>665.9465165833367</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>838.3769926225683</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>1055.4541006761224</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>1328.7379883235296</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>1672.782019116753</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>2105.907792258437</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>2651.180834569498</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>3337.638923901209</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>4201.838456692571</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>5289.801209384263</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>6659.465165833367</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>8383.769926225683</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>10554.541006761223</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>13287.379883235297</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>16727.82019116753</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>21059.07792258437</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>26511.80834569498</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>33376.38923901209</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>42018.384566925706</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>52898.012093842626</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>66594.65165833366</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>83837.69926225684</v>
       </c>
       <c r="AE3" t="n">
         <v>15991.72018964069</v>
@@ -659,94 +659,94 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>105.54541006761224</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>132.87379883235297</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>167.2782019116753</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>210.59077922584368</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>265.1180834569498</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>333.76389239012093</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>420.1838456692571</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>528.9801209384262</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>665.9465165833367</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>838.3769926225683</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>1055.4541006761224</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>1328.7379883235296</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>1672.782019116753</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>2105.907792258437</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>2651.180834569498</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>3337.638923901209</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>4201.838456692571</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>5289.801209384263</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>6659.465165833367</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>8383.769926225683</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>10554.541006761223</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>13287.379883235297</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>16727.82019116753</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>21059.07792258437</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>26511.80834569498</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>33376.38923901209</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>42018.384566925706</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>52898.012093842626</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>66594.65165833366</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>83837.69926225684</v>
       </c>
       <c r="AE3" t="n">
         <v>15991.72018964069</v>
@@ -1020,94 +1020,94 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>105.54541006761224</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>132.87379883235297</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>167.2782019116753</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>210.59077922584368</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>265.1180834569498</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>333.76389239012093</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>420.1838456692571</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>528.9801209384262</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>665.9465165833367</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>838.3769926225683</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>1055.4541006761224</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>1328.7379883235296</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>1672.782019116753</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>2105.907792258437</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>2651.180834569498</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>3337.638923901209</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>4201.838456692571</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>5289.801209384263</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>6659.465165833367</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>8383.769926225683</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>10554.541006761223</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>13287.379883235297</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>16727.82019116753</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>21059.07792258437</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>26511.80834569498</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>33376.38923901209</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>42018.384566925706</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>52898.012093842626</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>66594.65165833366</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>83837.69926225684</v>
       </c>
       <c r="AE3" t="n">
         <v>15991.72018964069</v>
@@ -1381,94 +1381,94 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>105.54541006761224</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>132.87379883235297</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>167.2782019116753</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>210.59077922584368</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>265.1180834569498</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>333.76389239012093</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>420.1838456692571</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>528.9801209384262</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>665.9465165833367</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>838.3769926225683</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>1055.4541006761224</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>1328.7379883235296</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>1672.782019116753</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>2105.907792258437</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>2651.180834569498</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>3337.638923901209</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>4201.838456692571</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>5289.801209384263</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>6659.465165833367</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>8383.769926225683</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>10554.541006761223</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>13287.379883235297</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>16727.82019116753</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>21059.07792258437</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>26511.80834569498</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>33376.38923901209</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>42018.384566925706</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>52898.012093842626</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>66594.65165833366</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>83837.69926225684</v>
       </c>
       <c r="AE3" t="n">
         <v>15991.72018964069</v>
